--- a/GS.xlsx
+++ b/GS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harp\Documents\GitHub\WAT_HabMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2550EFD-B7E4-40FD-9FCE-9FE8449A503C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A59196-41DD-40E0-919B-54254F37B389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F6F215B-BDA3-464F-9F96-D0E1A073205C}"/>
   </bookViews>
@@ -35,13 +35,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>SST_GS</t>
+    <t>Month</t>
   </si>
   <si>
-    <t>CHL_GS</t>
+    <t>CHL</t>
   </si>
   <si>
-    <t>Month</t>
+    <t>SST</t>
   </si>
 </sst>
 </file>
@@ -396,20 +396,20 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
